--- a/Accounting_App/Reports/Report_T002.xlsx
+++ b/Accounting_App/Reports/Report_T002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Lin\Desktop\可愛團契記帳軟體\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Project\Accounting_App\Accounting_App\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,8 +106,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[=0]&quot;&quot;;#,##0"/>
+    <numFmt numFmtId="177" formatCode="[=0]&quot;0&quot;;#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,7 +260,13 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +501,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -506,40 +513,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -548,10 +555,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -597,7 +604,9 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -605,7 +614,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -613,7 +622,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -629,7 +638,7 @@
         <f>SUM(E9:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="17">
         <f>$F$8+D11-E11</f>
         <v>0</v>
       </c>
